--- a/base_besmart_v3.xlsx
+++ b/base_besmart_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA451D-E30F-48F6-B0F8-7C7C98AA0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F0A89-2D49-4ADB-865B-058DD6970F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
@@ -264,9 +264,6 @@
     <t>Crédito XP</t>
   </si>
   <si>
-    <t>Coleteralizado</t>
-  </si>
-  <si>
     <t>BV - Financiamento de Auto(Mín. 5k)</t>
   </si>
   <si>
@@ -421,13 +418,16 @@
   </si>
   <si>
     <t>Imóvel</t>
+  </si>
+  <si>
+    <t>Colaterizado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +445,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,11 +503,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D2DEC-1B34-4F16-81B5-68703BD101CC}">
   <dimension ref="A1:E318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -1752,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -1939,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
@@ -1956,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -4382,12 +4390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>76</v>
       </c>
-      <c r="B210" t="s">
-        <v>78</v>
+      <c r="B210" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C210" t="s">
         <v>77</v>
@@ -4404,7 +4412,7 @@
         <v>76</v>
       </c>
       <c r="B211" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C211" t="s">
         <v>77</v>
@@ -4424,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="C212" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
@@ -4441,7 +4449,7 @@
         <v>76</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D213" s="2">
         <v>2</v>
@@ -4458,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="C214" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D214" s="2">
         <v>1</v>
@@ -4475,7 +4483,7 @@
         <v>76</v>
       </c>
       <c r="C215" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D215" s="2">
         <v>2</v>
@@ -4492,7 +4500,7 @@
         <v>76</v>
       </c>
       <c r="C216" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D216" s="2">
         <v>1</v>
@@ -4509,7 +4517,7 @@
         <v>76</v>
       </c>
       <c r="C217" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D217" s="2">
         <v>2</v>
@@ -4526,7 +4534,7 @@
         <v>76</v>
       </c>
       <c r="C218" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D218" s="2">
         <v>1</v>
@@ -4543,7 +4551,7 @@
         <v>76</v>
       </c>
       <c r="C219" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D219" s="2">
         <v>2</v>
@@ -4560,7 +4568,7 @@
         <v>76</v>
       </c>
       <c r="C220" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D220" s="2">
         <v>1</v>
@@ -4577,7 +4585,7 @@
         <v>76</v>
       </c>
       <c r="C221" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D221" s="2">
         <v>2</v>
@@ -4594,7 +4602,7 @@
         <v>76</v>
       </c>
       <c r="C222" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D222" s="2">
         <v>1</v>
@@ -4611,7 +4619,7 @@
         <v>76</v>
       </c>
       <c r="C223" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D223" s="2">
         <v>2</v>
@@ -4628,7 +4636,7 @@
         <v>76</v>
       </c>
       <c r="C224" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D224" s="2">
         <v>1</v>
@@ -4645,7 +4653,7 @@
         <v>76</v>
       </c>
       <c r="C225" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D225" s="2">
         <v>2</v>
@@ -4662,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D226" s="2">
         <v>1</v>
@@ -4679,7 +4687,7 @@
         <v>76</v>
       </c>
       <c r="C227" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D227" s="2">
         <v>2</v>
@@ -4696,7 +4704,7 @@
         <v>76</v>
       </c>
       <c r="C228" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D228" s="2">
         <v>1</v>
@@ -4713,7 +4721,7 @@
         <v>76</v>
       </c>
       <c r="C229" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D229" s="2">
         <v>2</v>
@@ -4730,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D230" s="2">
         <v>1</v>
@@ -4747,7 +4755,7 @@
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D231" s="2">
         <v>2</v>
@@ -4761,10 +4769,10 @@
         <v>76</v>
       </c>
       <c r="B232" t="s">
+        <v>88</v>
+      </c>
+      <c r="C232" t="s">
         <v>89</v>
-      </c>
-      <c r="C232" t="s">
-        <v>90</v>
       </c>
       <c r="D232" s="2">
         <v>1</v>
@@ -4778,10 +4786,10 @@
         <v>76</v>
       </c>
       <c r="B233" t="s">
+        <v>88</v>
+      </c>
+      <c r="C233" t="s">
         <v>89</v>
-      </c>
-      <c r="C233" t="s">
-        <v>90</v>
       </c>
       <c r="D233" s="2">
         <v>2</v>
@@ -4795,10 +4803,10 @@
         <v>76</v>
       </c>
       <c r="B234" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D234" s="2">
         <v>1</v>
@@ -4812,10 +4820,10 @@
         <v>76</v>
       </c>
       <c r="B235" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C235" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D235" s="2">
         <v>2</v>
@@ -4829,10 +4837,10 @@
         <v>76</v>
       </c>
       <c r="B236" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C236" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D236" s="2">
         <v>1</v>
@@ -4849,7 +4857,7 @@
         <v>75</v>
       </c>
       <c r="C237" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D237" s="2">
         <v>1</v>
@@ -4866,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="C238" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D238" s="2">
         <v>2</v>
@@ -4883,7 +4891,7 @@
         <v>75</v>
       </c>
       <c r="C239" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D239" s="2">
         <v>1</v>
@@ -4900,7 +4908,7 @@
         <v>75</v>
       </c>
       <c r="C240" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D240" s="2">
         <v>2</v>
@@ -4917,7 +4925,7 @@
         <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -4934,7 +4942,7 @@
         <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D242" s="2">
         <v>2</v>
@@ -4951,7 +4959,7 @@
         <v>76</v>
       </c>
       <c r="C243" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D243" s="2">
         <v>1</v>
@@ -4968,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="C244" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D244" s="2">
         <v>2</v>
@@ -4985,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D245" s="2">
         <v>1</v>
@@ -5002,7 +5010,7 @@
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D246" s="2">
         <v>2</v>
@@ -5019,7 +5027,7 @@
         <v>76</v>
       </c>
       <c r="C247" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D247" s="2">
         <v>1</v>
@@ -5036,7 +5044,7 @@
         <v>76</v>
       </c>
       <c r="C248" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D248" s="2">
         <v>2</v>
@@ -5053,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D249" s="2">
         <v>1</v>
@@ -5070,7 +5078,7 @@
         <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D250" s="2">
         <v>2</v>
@@ -5084,10 +5092,10 @@
         <v>76</v>
       </c>
       <c r="B251" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C251" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D251" s="2">
         <v>1</v>
@@ -5101,10 +5109,10 @@
         <v>76</v>
       </c>
       <c r="B252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C252" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D252" s="2">
         <v>2</v>
@@ -5121,7 +5129,7 @@
         <v>75</v>
       </c>
       <c r="C253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D253" s="2">
         <v>1</v>
@@ -5138,7 +5146,7 @@
         <v>75</v>
       </c>
       <c r="C254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D254" s="2">
         <v>2</v>
@@ -5155,7 +5163,7 @@
         <v>75</v>
       </c>
       <c r="C255" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D255" s="2">
         <v>1</v>
@@ -5172,7 +5180,7 @@
         <v>75</v>
       </c>
       <c r="C256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D256" s="2">
         <v>2</v>
@@ -5189,7 +5197,7 @@
         <v>75</v>
       </c>
       <c r="C257" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D257" s="2">
         <v>1</v>
@@ -5206,7 +5214,7 @@
         <v>75</v>
       </c>
       <c r="C258" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D258" s="2">
         <v>2</v>
@@ -5223,7 +5231,7 @@
         <v>75</v>
       </c>
       <c r="C259" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D259" s="2">
         <v>1</v>
@@ -5240,7 +5248,7 @@
         <v>75</v>
       </c>
       <c r="C260" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D260" s="2">
         <v>2</v>
@@ -5254,10 +5262,10 @@
         <v>76</v>
       </c>
       <c r="B261" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C261" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D261" s="2">
         <v>1</v>
@@ -5271,10 +5279,10 @@
         <v>76</v>
       </c>
       <c r="B262" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C262" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D262" s="2">
         <v>2</v>
@@ -5291,7 +5299,7 @@
         <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D263" s="2">
         <v>1</v>
@@ -5308,7 +5316,7 @@
         <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D264" s="2">
         <v>2</v>
@@ -5325,7 +5333,7 @@
         <v>76</v>
       </c>
       <c r="C265" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D265" s="2">
         <v>1</v>
@@ -5342,7 +5350,7 @@
         <v>76</v>
       </c>
       <c r="C266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D266" s="2">
         <v>2</v>
@@ -5359,7 +5367,7 @@
         <v>76</v>
       </c>
       <c r="C267" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D267" s="2">
         <v>1</v>
@@ -5376,7 +5384,7 @@
         <v>76</v>
       </c>
       <c r="C268" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D268" s="2">
         <v>2</v>
@@ -5393,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="C269" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D269" s="2">
         <v>1</v>
@@ -5410,7 +5418,7 @@
         <v>76</v>
       </c>
       <c r="C270" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D270" s="2">
         <v>2</v>
@@ -5427,7 +5435,7 @@
         <v>76</v>
       </c>
       <c r="C271" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D271" s="2">
         <v>1</v>
@@ -5444,7 +5452,7 @@
         <v>76</v>
       </c>
       <c r="C272" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D272" s="2">
         <v>2</v>
@@ -5461,7 +5469,7 @@
         <v>76</v>
       </c>
       <c r="C273" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D273" s="2">
         <v>1</v>
@@ -5478,7 +5486,7 @@
         <v>76</v>
       </c>
       <c r="C274" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D274" s="2">
         <v>2</v>
@@ -5492,10 +5500,10 @@
         <v>2</v>
       </c>
       <c r="B275" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C275" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D275" s="2">
         <v>1</v>
@@ -5509,10 +5517,10 @@
         <v>2</v>
       </c>
       <c r="B276" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D276" s="2">
         <v>2</v>
@@ -5526,10 +5534,10 @@
         <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C277" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D277" s="2">
         <v>3</v>
@@ -5543,10 +5551,10 @@
         <v>2</v>
       </c>
       <c r="B278" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C278" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D278" s="2">
         <v>4</v>
@@ -5560,10 +5568,10 @@
         <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C279" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D279" s="2">
         <v>1</v>
@@ -5577,10 +5585,10 @@
         <v>2</v>
       </c>
       <c r="B280" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C280" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D280" s="2">
         <v>2</v>
@@ -5594,10 +5602,10 @@
         <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C281" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D281" s="2">
         <v>3</v>
@@ -5611,10 +5619,10 @@
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C282" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D282" s="2">
         <v>4</v>
@@ -5628,10 +5636,10 @@
         <v>2</v>
       </c>
       <c r="B283" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C283" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D283" s="2">
         <v>1</v>
@@ -5645,10 +5653,10 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D284" s="2">
         <v>2</v>
@@ -5662,10 +5670,10 @@
         <v>2</v>
       </c>
       <c r="B285" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C285" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D285" s="2">
         <v>3</v>
@@ -5679,10 +5687,10 @@
         <v>2</v>
       </c>
       <c r="B286" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C286" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D286" s="2">
         <v>4</v>
@@ -5696,10 +5704,10 @@
         <v>2</v>
       </c>
       <c r="B287" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C287" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D287" s="2">
         <v>1</v>
@@ -5713,10 +5721,10 @@
         <v>2</v>
       </c>
       <c r="B288" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C288" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D288" s="2">
         <v>2</v>
@@ -5730,10 +5738,10 @@
         <v>2</v>
       </c>
       <c r="B289" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C289" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D289" s="2">
         <v>3</v>
@@ -5747,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="B290" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C290" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D290" s="2">
         <v>4</v>
@@ -5764,10 +5772,10 @@
         <v>2</v>
       </c>
       <c r="B291" t="s">
+        <v>111</v>
+      </c>
+      <c r="C291" t="s">
         <v>112</v>
-      </c>
-      <c r="C291" t="s">
-        <v>113</v>
       </c>
       <c r="D291" s="2">
         <v>1</v>
@@ -5781,10 +5789,10 @@
         <v>2</v>
       </c>
       <c r="B292" t="s">
+        <v>111</v>
+      </c>
+      <c r="C292" t="s">
         <v>112</v>
-      </c>
-      <c r="C292" t="s">
-        <v>113</v>
       </c>
       <c r="D292" s="2">
         <v>2</v>
@@ -5798,10 +5806,10 @@
         <v>2</v>
       </c>
       <c r="B293" t="s">
+        <v>111</v>
+      </c>
+      <c r="C293" t="s">
         <v>112</v>
-      </c>
-      <c r="C293" t="s">
-        <v>113</v>
       </c>
       <c r="D293" s="2">
         <v>3</v>
@@ -5815,10 +5823,10 @@
         <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C294" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D294" s="2">
         <v>1</v>
@@ -5832,10 +5840,10 @@
         <v>2</v>
       </c>
       <c r="B295" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C295" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D295" s="2">
         <v>2</v>
@@ -5849,10 +5857,10 @@
         <v>2</v>
       </c>
       <c r="B296" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C296" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D296" s="2">
         <v>3</v>
@@ -5866,10 +5874,10 @@
         <v>2</v>
       </c>
       <c r="B297" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C297" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D297" s="2">
         <v>4</v>
@@ -5883,10 +5891,10 @@
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C298" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D298" s="2">
         <v>1</v>
@@ -5900,10 +5908,10 @@
         <v>2</v>
       </c>
       <c r="B299" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C299" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D299" s="2">
         <v>2</v>
@@ -5917,10 +5925,10 @@
         <v>2</v>
       </c>
       <c r="B300" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C300" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D300" s="2">
         <v>1</v>
@@ -5934,10 +5942,10 @@
         <v>2</v>
       </c>
       <c r="B301" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C301" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D301" s="2">
         <v>2</v>
@@ -5951,10 +5959,10 @@
         <v>2</v>
       </c>
       <c r="B302" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C302" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D302" s="2">
         <v>3</v>
@@ -5968,10 +5976,10 @@
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C303" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D303" s="2">
         <v>4</v>
@@ -5985,10 +5993,10 @@
         <v>2</v>
       </c>
       <c r="B304" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C304" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D304" s="2">
         <v>1</v>
@@ -6002,10 +6010,10 @@
         <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C305" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D305" s="2">
         <v>2</v>
@@ -6019,10 +6027,10 @@
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C306" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D306" s="2">
         <v>3</v>
@@ -6036,10 +6044,10 @@
         <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C307" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D307" s="2">
         <v>4</v>
@@ -6050,13 +6058,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B308" t="s">
+        <v>121</v>
+      </c>
+      <c r="C308" t="s">
         <v>122</v>
-      </c>
-      <c r="C308" t="s">
-        <v>123</v>
       </c>
       <c r="D308" s="2">
         <v>1</v>
@@ -6067,13 +6075,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B309" t="s">
+        <v>121</v>
+      </c>
+      <c r="C309" t="s">
         <v>122</v>
-      </c>
-      <c r="C309" t="s">
-        <v>123</v>
       </c>
       <c r="D309" s="2">
         <v>2</v>
@@ -6084,13 +6092,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>123</v>
+      </c>
+      <c r="B310" t="s">
+        <v>121</v>
+      </c>
+      <c r="C310" t="s">
         <v>124</v>
-      </c>
-      <c r="B310" t="s">
-        <v>122</v>
-      </c>
-      <c r="C310" t="s">
-        <v>125</v>
       </c>
       <c r="D310" s="2">
         <v>1</v>
@@ -6101,13 +6109,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>123</v>
+      </c>
+      <c r="B311" t="s">
+        <v>121</v>
+      </c>
+      <c r="C311" t="s">
         <v>124</v>
-      </c>
-      <c r="B311" t="s">
-        <v>122</v>
-      </c>
-      <c r="C311" t="s">
-        <v>125</v>
       </c>
       <c r="D311" s="2">
         <v>2</v>
@@ -6118,13 +6126,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B312" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C312" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D312" s="2">
         <v>1</v>
@@ -6135,13 +6143,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B313" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C313" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D313" s="2">
         <v>2</v>
@@ -6152,13 +6160,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B314" t="s">
+        <v>126</v>
+      </c>
+      <c r="C314" t="s">
         <v>127</v>
-      </c>
-      <c r="C314" t="s">
-        <v>128</v>
       </c>
       <c r="D314" s="2">
         <v>1</v>
@@ -6169,13 +6177,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B315" t="s">
+        <v>126</v>
+      </c>
+      <c r="C315" t="s">
         <v>127</v>
-      </c>
-      <c r="C315" t="s">
-        <v>128</v>
       </c>
       <c r="D315" s="2">
         <v>2</v>
@@ -6186,13 +6194,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B316" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C316" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D316" s="2">
         <v>1</v>
@@ -6203,13 +6211,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B317" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C317" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D317" s="2">
         <v>2</v>
